--- a/ML Journey Tracker.xlsx
+++ b/ML Journey Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\btjos\Documents\GitHub\hello-world\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6758B7-5A01-4A97-8D05-6AF20A915C97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1120D965-F007-4489-A284-E4FA0A92155C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{ADD9D4DE-E6D1-47DA-BE1E-8BBB98BB25EC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>Day</t>
   </si>
@@ -177,6 +177,16 @@
     <t>2.statistical_methods_for_machine_learning Ch 1 to 11
 Master Leraning with Python - ch 5 coding
 Converted from notes to this workbook!</t>
+  </si>
+  <si>
+    <t>Plotting is so different! Learnt the State-Machine environment and object-oriented approach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ted-Master Data Analysis - Ch 59 to 61
+Ted-Master ML with Python </t>
+  </si>
+  <si>
+    <t>Long Sunday, did help to get back focus</t>
   </si>
 </sst>
 </file>
@@ -244,7 +254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -258,6 +268,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -654,10 +668,10 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,17 +1010,14 @@
         <f t="shared" si="0"/>
         <v>43810</v>
       </c>
-      <c r="C20" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>34</v>
+      <c r="C20">
+        <v>0</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1015,10 +1026,7 @@
         <v>43811</v>
       </c>
       <c r="C21" s="4">
-        <v>6</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>44</v>
@@ -1028,15 +1036,51 @@
       <c r="A22" s="4">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="7">
+        <f>B21+1</f>
+        <v>43812</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="7">
+        <f>B22+1</f>
+        <v>43813</v>
+      </c>
+      <c r="C23" s="4">
+        <v>6</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
+      </c>
+      <c r="B24" s="7">
+        <f>B23+1</f>
+        <v>43814</v>
+      </c>
+      <c r="C24" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">

--- a/ML Journey Tracker.xlsx
+++ b/ML Journey Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\btjos\Documents\GitHub\hello-world\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1120D965-F007-4489-A284-E4FA0A92155C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C170A0-F47F-47E7-827D-9C9D4A9F7E87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{ADD9D4DE-E6D1-47DA-BE1E-8BBB98BB25EC}"/>
   </bookViews>
@@ -182,11 +182,11 @@
     <t>Plotting is so different! Learnt the State-Machine environment and object-oriented approach.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ted-Master Data Analysis - Ch 59 to 61
-Ted-Master ML with Python </t>
-  </si>
-  <si>
     <t>Long Sunday, did help to get back focus</t>
+  </si>
+  <si>
+    <t>Ted-Master Data Analysis - Ch 59 to 61
+Ted-Master ML with Python - Ch 6 to 12</t>
   </si>
 </sst>
 </file>
@@ -254,13 +254,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -268,8 +265,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -604,7 +603,7 @@
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>45</v>
       </c>
     </row>
@@ -668,10 +667,10 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,450 +695,481 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>43792</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <f>B2+1</f>
         <v>43793</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <f t="shared" ref="B4:B21" si="0">B3+1</f>
         <v>43794</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>1.5</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <f t="shared" si="0"/>
         <v>43795</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>1.5</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <f t="shared" si="0"/>
         <v>43796</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>0.5</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <f t="shared" si="0"/>
         <v>43797</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>2</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <f t="shared" si="0"/>
         <v>43798</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>1.5</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <f t="shared" si="0"/>
         <v>43799</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>5</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>43800</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>6</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <f t="shared" si="0"/>
         <v>43801</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>0.5</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <f t="shared" si="0"/>
         <v>43802</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>0</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>43803</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>0</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>43804</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>43805</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>0</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>43806</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>4</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>43807</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>0</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4" t="s">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <f t="shared" si="0"/>
         <v>43808</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>0</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4" t="s">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <f t="shared" si="0"/>
         <v>43809</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>0</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <f t="shared" si="0"/>
         <v>43810</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="6">
         <v>0</v>
       </c>
+      <c r="D20" s="6"/>
       <c r="E20" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <f t="shared" si="0"/>
         <v>43811</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>0</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="D21" s="6"/>
+      <c r="E21" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="7">
         <f>B21+1</f>
         <v>43812</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>0.5</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="7">
         <f>B22+1</f>
         <v>43813</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>6</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>49</v>
+      <c r="E23" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="7">
         <f>B23+1</f>
         <v>43814</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>3.5</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
     </row>

--- a/ML Journey Tracker.xlsx
+++ b/ML Journey Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\btjos\Documents\GitHub\hello-world\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C170A0-F47F-47E7-827D-9C9D4A9F7E87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCF396A-2E49-4D5D-9FB3-8D999A1CE3D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{ADD9D4DE-E6D1-47DA-BE1E-8BBB98BB25EC}"/>
   </bookViews>
@@ -179,14 +179,15 @@
 Converted from notes to this workbook!</t>
   </si>
   <si>
-    <t>Plotting is so different! Learnt the State-Machine environment and object-oriented approach.</t>
-  </si>
-  <si>
     <t>Long Sunday, did help to get back focus</t>
   </si>
   <si>
     <t>Ted-Master Data Analysis - Ch 59 to 61
-Ted-Master ML with Python - Ch 6 to 12</t>
+Ted-Master ML with Python - Ch 6 to 13</t>
+  </si>
+  <si>
+    <t>Plotting is so different! Learnt the State-Machine environment and object-oriented approach.
+Good way to get used to learn a new lingo is to speak, same goes with coding practice.</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1065,7 @@
         <v>46</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1076,13 +1077,13 @@
         <v>43814</v>
       </c>
       <c r="C24" s="3">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">

--- a/ML Journey Tracker.xlsx
+++ b/ML Journey Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\btjos\Documents\GitHub\hello-world\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCF396A-2E49-4D5D-9FB3-8D999A1CE3D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2A9B8E-0F1F-460F-AAF9-209377DDD748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{ADD9D4DE-E6D1-47DA-BE1E-8BBB98BB25EC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>Day</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Learning Git</t>
   </si>
   <si>
-    <t>Created respository - Also the day Atharva met Kayo. Some comfort knowing there are no deeper issues</t>
-  </si>
-  <si>
     <t>Programiz.com - has cool app!!</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>'Deliberate Practice' is hard!!</t>
   </si>
   <si>
-    <t>Seems intersting. Realized it is the very act of writing down the codes that is important to get this as Zen. As against always feeling inadequate because simple codes doesnt' come naturally after first reading.</t>
-  </si>
-  <si>
     <t>worked on writing the distribution codes in Jupyter, upto chapter 9.</t>
   </si>
   <si>
@@ -126,9 +120,6 @@
     <t>probability_for_machine_learning ch 16 - 18</t>
   </si>
   <si>
-    <t xml:space="preserve">Another solid day -  Need to digest this a bit. Exported my own Jupyter notebook note as html for revision. In the meantime, coming week is lots of hectic.. if I get good an hour a day should be an achivement! Equanimity! Equanimity!!  Also brought up Mastering ML by Ted Petrou - need to get on with regular practice. The book  robability_for_machine_learning is good. But leaning on theory only may not be ideal. </t>
-  </si>
-  <si>
     <t>Office caught up. Coming two weeks are going to be hectic, with 14 to 16 hours engagement. Learnt the concept of data exploration - seems obvious but somehow not appreciated well.</t>
   </si>
   <si>
@@ -144,12 +135,6 @@
     <t xml:space="preserve">Purchased Humble bundle - Data Science - no starch press. </t>
   </si>
   <si>
-    <t>limping back to normalcy. This book provides a more common sense to statisitics. Realized the probablistic and event based differentiation!</t>
-  </si>
-  <si>
-    <t>Coding Zen is not easy. It the same feeling with any other effort with meditation. What seems to be at core is inability to persisit with any desciplined pattern. Is it basic FOMO?</t>
-  </si>
-  <si>
     <t>Master Machine Learning with Python - Section 1</t>
   </si>
   <si>
@@ -162,9 +147,6 @@
     <t>No way could have studied, or rather did I want this Zen badly enough? Like other meditation and things that are on to do list, things fail of there is no strong desire.</t>
   </si>
   <si>
-    <t>What matters is a holistic approach. Coding zen, if it is to evolve as as way of Zen, looks like needs supplementing by way of being mindful too. Mindfull of talking more than required, emotions flaring up on imaginary slights, not being able to step aside and watch basic drives emerge to take control. Long way to go.</t>
-  </si>
-  <si>
     <t>Sad to see Chikodi Mirje Sr passing away. More like the world I grew up is going away</t>
   </si>
   <si>
@@ -172,11 +154,6 @@
   </si>
   <si>
     <t>Objective - Evolve coding into Zen, attain flow in coding</t>
-  </si>
-  <si>
-    <t>2.statistical_methods_for_machine_learning Ch 1 to 11
-Master Leraning with Python - ch 5 coding
-Converted from notes to this workbook!</t>
   </si>
   <si>
     <t>Long Sunday, did help to get back focus</t>
@@ -188,6 +165,35 @@
   <si>
     <t>Plotting is so different! Learnt the State-Machine environment and object-oriented approach.
 Good way to get used to learn a new lingo is to speak, same goes with coding practice.</t>
+  </si>
+  <si>
+    <t>Ted-Master ML with Python - Ch 14</t>
+  </si>
+  <si>
+    <t>Created repository - Also the day Atharva met Kayo. Some comfort knowing there are no deeper issues</t>
+  </si>
+  <si>
+    <t>Seems interesting. Realized it is the very act of writing down the codes that is important to get this as Zen. As against always feeling inadequate because simple codes doesn't' come naturally after first reading.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Another solid day -  Need to digest this a bit. Exported my own Jupyter notebook note as html for revision. In the meantime, coming week is lots of hectic.. if I get good an hour a day should be an achievement! Equanimity! Equanimity!!  Also brought up Mastering ML by Ted Petrou - need to get on with regular practice. The book  robability_for_machine_learning is good. But leaning on theory only may not be ideal. </t>
+  </si>
+  <si>
+    <t>limping back to normalcy. This book provides a more common sense to statistics. Realized the probabilistic and event based differentiation!</t>
+  </si>
+  <si>
+    <t>Coding Zen is not easy. It the same feeling with any other effort with meditation. What seems to be at core is inability to persist with any disciplined pattern. Is it basic FOMO?</t>
+  </si>
+  <si>
+    <t>What matters is a holistic approach. Coding Zen, if it is to evolve as  way of Zen, looks like needs supplementing by way of being mindful too. Mindful of talking more than required, emotions flaring up on imaginary slights, not being able to step aside and watch basic drives emerge to take control. Long way to go.</t>
+  </si>
+  <si>
+    <t>2.statistical_methods_for_machine_learning Ch 1 to 11
+Master Learning with Python - ch 5 coding
+Converted from notes to this workbook!</t>
+  </si>
+  <si>
+    <t>Decision trees are simple, but appeared tougher at first glance</t>
   </si>
 </sst>
 </file>
@@ -605,7 +611,7 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
@@ -615,38 +621,38 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
         <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +677,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,7 +715,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -724,10 +730,10 @@
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -742,10 +748,10 @@
         <v>1.5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -760,10 +766,10 @@
         <v>1.5</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -779,7 +785,7 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -794,10 +800,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -812,10 +818,10 @@
         <v>1.5</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -830,10 +836,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -848,10 +854,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -866,10 +872,10 @@
         <v>0.5</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -885,7 +891,7 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -900,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -915,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -930,10 +936,10 @@
         <v>0</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -948,10 +954,10 @@
         <v>4</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -967,7 +973,7 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -983,7 +989,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -999,7 +1005,7 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1015,7 +1021,7 @@
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1031,7 +1037,7 @@
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1046,7 +1052,7 @@
         <v>0.5</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E22" s="6"/>
     </row>
@@ -1062,10 +1068,10 @@
         <v>6</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1077,23 +1083,32 @@
         <v>43814</v>
       </c>
       <c r="C24" s="3">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="B25" s="7">
+        <f>B24+1</f>
+        <v>43815</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3">

--- a/ML Journey Tracker.xlsx
+++ b/ML Journey Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\btjos\Documents\GitHub\hello-world\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2A9B8E-0F1F-460F-AAF9-209377DDD748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8087FD14-7283-415B-A448-45EA6C82AC94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{ADD9D4DE-E6D1-47DA-BE1E-8BBB98BB25EC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>Day</t>
   </si>
@@ -194,6 +194,12 @@
   </si>
   <si>
     <t>Decision trees are simple, but appeared tougher at first glance</t>
+  </si>
+  <si>
+    <t>Ted-Master ML with Python - Ch 15 to 18</t>
+  </si>
+  <si>
+    <t>While could read through in splits in the morning, evening feels bit tired. Or might even be the book that I picked on way back home. Is it a pattern of me refusing to follow a pattern? Can't really blame on age, but could be a factor too. Do remember this feeling of just not wanting to do anything, just cuddle up and read..</t>
   </si>
 </sst>
 </file>
@@ -677,7 +683,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,14 +1116,22 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="B26" s="7">
+        <v>43816</v>
+      </c>
+      <c r="C26" s="6">
+        <v>1</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">

--- a/ML Journey Tracker.xlsx
+++ b/ML Journey Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\btjos\Documents\GitHub\hello-world\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8087FD14-7283-415B-A448-45EA6C82AC94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E55D9DE-6D6A-4D70-95C9-0426E92DD1AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{ADD9D4DE-E6D1-47DA-BE1E-8BBB98BB25EC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>Day</t>
   </si>
@@ -200,6 +200,12 @@
   </si>
   <si>
     <t>While could read through in splits in the morning, evening feels bit tired. Or might even be the book that I picked on way back home. Is it a pattern of me refusing to follow a pattern? Can't really blame on age, but could be a factor too. Do remember this feeling of just not wanting to do anything, just cuddle up and read..</t>
+  </si>
+  <si>
+    <t>Andrew NG's course</t>
+  </si>
+  <si>
+    <t>Could have done better. Each day passing has its own opportunity cost. Sense of want is what drives any venture</t>
   </si>
 </sst>
 </file>
@@ -683,7 +689,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,10 +1143,18 @@
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="B27" s="7">
+        <v>43817</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3">

--- a/ML Journey Tracker.xlsx
+++ b/ML Journey Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\btjos\Documents\GitHub\hello-world\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E55D9DE-6D6A-4D70-95C9-0426E92DD1AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBAE0BA-22F1-4C60-AE1C-273323DA948A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{ADD9D4DE-E6D1-47DA-BE1E-8BBB98BB25EC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>Day</t>
   </si>
@@ -206,6 +206,17 @@
   </si>
   <si>
     <t>Could have done better. Each day passing has its own opportunity cost. Sense of want is what drives any venture</t>
+  </si>
+  <si>
+    <t>Going through first four books from JB was quite easy, probably because I can relate faster to the underlying theory from my own profession. It is still feeling of not coding enough that gets in a way of reading through this like a zen. Might be worth to skip the theory for a month, focus on coding and then comeback to theory books.</t>
+  </si>
+  <si>
+    <t>4.master_machine_learning_algorithms CH 1-12
+Ted-Master ML with Python - Ch 15 python codes
+Completing Andrew NG course today</t>
+  </si>
+  <si>
+    <t>Ajja passed away yesterday night. He died unhappy at 94. All the more reason to find my way to live to a no-repent end.</t>
   </si>
 </sst>
 </file>
@@ -686,10 +697,10 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,30 +1167,48 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="B28" s="7">
+        <v>43818</v>
+      </c>
+      <c r="C28" s="6">
+        <v>4</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
+      <c r="B29" s="7">
+        <v>43818</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0</v>
+      </c>
       <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+      <c r="E29" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
+      <c r="B30" s="7">
+        <v>43818</v>
+      </c>
+      <c r="C30" s="6">
+        <v>2</v>
+      </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
     </row>

--- a/ML Journey Tracker.xlsx
+++ b/ML Journey Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\btjos\Documents\GitHub\hello-world\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBAE0BA-22F1-4C60-AE1C-273323DA948A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C6AB20-6DDF-4015-9B15-1B37DCD4A312}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{ADD9D4DE-E6D1-47DA-BE1E-8BBB98BB25EC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>Day</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>Ajja passed away yesterday night. He died unhappy at 94. All the more reason to find my way to live to a no-repent end.</t>
+  </si>
+  <si>
+    <t>Andrew NG course - completed the last coding task</t>
   </si>
 </sst>
 </file>
@@ -697,7 +700,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
@@ -1138,6 +1141,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7">
+        <f>B25+1</f>
         <v>43816</v>
       </c>
       <c r="C26" s="6">
@@ -1155,6 +1159,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7">
+        <f>B26+1</f>
         <v>43817</v>
       </c>
       <c r="C27" s="6">
@@ -1172,6 +1177,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7">
+        <f>B27+1</f>
         <v>43818</v>
       </c>
       <c r="C28" s="6">
@@ -1189,7 +1195,8 @@
         <v>28</v>
       </c>
       <c r="B29" s="7">
-        <v>43818</v>
+        <f>B28+1</f>
+        <v>43819</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -1204,19 +1211,25 @@
         <v>29</v>
       </c>
       <c r="B30" s="7">
-        <v>43818</v>
+        <f>B29+1</f>
+        <v>43820</v>
       </c>
       <c r="C30" s="6">
         <v>2</v>
       </c>
-      <c r="D30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="6"/>
+      <c r="B31" s="7">
+        <f>B30+1</f>
+        <v>43821</v>
+      </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -1225,25 +1238,45 @@
       <c r="A32" s="3">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" s="7">
+        <f>B31+1</f>
+        <v>43822</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" s="7">
+        <f>B32+1</f>
+        <v>43823</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" s="7">
+        <f>B33+1</f>
+        <v>43824</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" s="7">
+        <f>B34+1</f>
+        <v>43825</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
+      </c>
+      <c r="B36" s="7">
+        <f>B35+1</f>
+        <v>43826</v>
       </c>
     </row>
   </sheetData>

--- a/ML Journey Tracker.xlsx
+++ b/ML Journey Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\btjos\Documents\GitHub\hello-world\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C6AB20-6DDF-4015-9B15-1B37DCD4A312}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9A87B5-3B79-4EF2-8F03-A6424ABE8266}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{ADD9D4DE-E6D1-47DA-BE1E-8BBB98BB25EC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>Day</t>
   </si>
@@ -220,6 +220,16 @@
   </si>
   <si>
     <t>Andrew NG course - completed the last coding task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taking bit of break from ML theory, focussing on working on Python coding. </t>
+  </si>
+  <si>
+    <t>Petrou - Exercise Python Ch 5, 6 7 ,8 and 10</t>
+  </si>
+  <si>
+    <t>Petrou - Exercise Python Ch 9
+Petrou - Data Analysis Ch 62, 63</t>
   </si>
 </sst>
 </file>
@@ -700,10 +710,10 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,7 +1081,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7">
-        <f>B21+1</f>
+        <f t="shared" ref="B22:B36" si="1">B21+1</f>
         <v>43812</v>
       </c>
       <c r="C22" s="3">
@@ -1087,7 +1097,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7">
-        <f>B22+1</f>
+        <f t="shared" si="1"/>
         <v>43813</v>
       </c>
       <c r="C23" s="3">
@@ -1105,7 +1115,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7">
-        <f>B23+1</f>
+        <f t="shared" si="1"/>
         <v>43814</v>
       </c>
       <c r="C24" s="3">
@@ -1123,7 +1133,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7">
-        <f>B24+1</f>
+        <f t="shared" si="1"/>
         <v>43815</v>
       </c>
       <c r="C25" s="6">
@@ -1141,7 +1151,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7">
-        <f>B25+1</f>
+        <f t="shared" si="1"/>
         <v>43816</v>
       </c>
       <c r="C26" s="6">
@@ -1159,7 +1169,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7">
-        <f>B26+1</f>
+        <f t="shared" si="1"/>
         <v>43817</v>
       </c>
       <c r="C27" s="6">
@@ -1177,7 +1187,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7">
-        <f>B27+1</f>
+        <f t="shared" si="1"/>
         <v>43818</v>
       </c>
       <c r="C28" s="6">
@@ -1195,7 +1205,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7">
-        <f>B28+1</f>
+        <f t="shared" si="1"/>
         <v>43819</v>
       </c>
       <c r="C29" s="6">
@@ -1211,7 +1221,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7">
-        <f>B29+1</f>
+        <f t="shared" si="1"/>
         <v>43820</v>
       </c>
       <c r="C30" s="6">
@@ -1227,20 +1237,32 @@
         <v>30</v>
       </c>
       <c r="B31" s="7">
-        <f>B30+1</f>
+        <f t="shared" si="1"/>
         <v>43821</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="6">
+        <v>6</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" s="7">
-        <f>B31+1</f>
+        <f t="shared" si="1"/>
         <v>43822</v>
+      </c>
+      <c r="C32" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1248,7 +1270,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7">
-        <f>B32+1</f>
+        <f t="shared" si="1"/>
         <v>43823</v>
       </c>
     </row>
@@ -1257,7 +1279,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7">
-        <f>B33+1</f>
+        <f t="shared" si="1"/>
         <v>43824</v>
       </c>
     </row>
@@ -1266,7 +1288,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7">
-        <f>B34+1</f>
+        <f t="shared" si="1"/>
         <v>43825</v>
       </c>
     </row>
@@ -1275,7 +1297,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7">
-        <f>B35+1</f>
+        <f t="shared" si="1"/>
         <v>43826</v>
       </c>
     </row>

--- a/ML Journey Tracker.xlsx
+++ b/ML Journey Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\btjos\Documents\GitHub\hello-world\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9A87B5-3B79-4EF2-8F03-A6424ABE8266}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151D664E-331E-45DA-9CDE-F93F27191F94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{ADD9D4DE-E6D1-47DA-BE1E-8BBB98BB25EC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>Day</t>
   </si>
@@ -230,6 +230,13 @@
   <si>
     <t>Petrou - Exercise Python Ch 9
 Petrou - Data Analysis Ch 62, 63</t>
+  </si>
+  <si>
+    <t>Petrou - Data Analysis Ch 32, 33</t>
+  </si>
+  <si>
+    <t>Coding journey can be quite confusing.. There is so much to learn.. And progress is painfully slow.
+Need to create coding opportunities at work too..</t>
   </si>
 </sst>
 </file>
@@ -297,7 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -313,6 +320,9 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -713,7 +723,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,8 +1274,11 @@
       <c r="D32" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E32" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1273,8 +1286,14 @@
         <f t="shared" si="1"/>
         <v>43823</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="6">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1283,7 +1302,7 @@
         <v>43824</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1292,7 +1311,7 @@
         <v>43825</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>

--- a/ML Journey Tracker.xlsx
+++ b/ML Journey Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\btjos\Documents\GitHub\hello-world\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151D664E-331E-45DA-9CDE-F93F27191F94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C79887-C522-4217-A7C6-03828146BD84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{ADD9D4DE-E6D1-47DA-BE1E-8BBB98BB25EC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="97">
   <si>
     <t>Day</t>
   </si>
@@ -237,13 +237,109 @@
   <si>
     <t>Coding journey can be quite confusing.. There is so much to learn.. And progress is painfully slow.
 Need to create coding opportunities at work too..</t>
+  </si>
+  <si>
+    <t>writing and editing to csv, drop columns</t>
+  </si>
+  <si>
+    <t>A good way to practice is to pick up work problems</t>
+  </si>
+  <si>
+    <t>Data exploration set up for work project; importing SAS files, pivot tables and plotting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">working on work project </t>
+  </si>
+  <si>
+    <t>groupby, agg, transform and working with datetime conditional column creation..</t>
+  </si>
+  <si>
+    <t>groupby, agg, transform and working with datetime conditional column creation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invested in DataQuest. Need to prioritize and focus. Feels like the learning path still hasn't stabilized. Ted Petrou's courses were good initially to pick up Python coding. Jason's books initially appealed because of rigour of theory, which was required for a seasoned mind that demands knowledge of fundamentals behind workings. In the meantime there is PyBites and other practice-python sign-ups crop-up. And Humble Bundle throws up good number of impressive books. Need to set up a plan and follow riligiously. </t>
+  </si>
+  <si>
+    <t>travelling</t>
+  </si>
+  <si>
+    <t>fragile life</t>
+  </si>
+  <si>
+    <t>also maked wonder how much time to be really shared with community?</t>
+  </si>
+  <si>
+    <t>Is self learning and realization more important than being social?</t>
+  </si>
+  <si>
+    <t>DateQuest</t>
+  </si>
+  <si>
+    <t>Set up a plan for myself 3 hours.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appealing as provides hands on approach. Also realized, spending ling hours on office hours was useful, now I can see how I could have done things in simpler and faster way. </t>
+  </si>
+  <si>
+    <t>Disturbed with Atharva. Copied and set up all the Humble bundle books</t>
+  </si>
+  <si>
+    <t>Dataquest as well as office project</t>
+  </si>
+  <si>
+    <t>Another good run</t>
+  </si>
+  <si>
+    <t>Focussed on DataQuest missions. Good thing about then is, feels like I am doing some coding. Also completed week 10 of Andrew NG's course</t>
+  </si>
+  <si>
+    <t>office after a good gap</t>
+  </si>
+  <si>
+    <t>Feels so exhuasted at long day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DataQuest </t>
+  </si>
+  <si>
+    <t xml:space="preserve">could have done better </t>
+  </si>
+  <si>
+    <t>DataQuest</t>
+  </si>
+  <si>
+    <t>Finally completed Andrew NG course. Couldn’t fathom reaction of a colleague, my fascination might be looking too quirky</t>
+  </si>
+  <si>
+    <t>office off-site</t>
+  </si>
+  <si>
+    <t>fell sick - some DataQuest</t>
+  </si>
+  <si>
+    <t>Good learning from DataQuest. Will focus to complete the course, need to pick up Ted Petrou lessons again to solidyfy the learnings</t>
+  </si>
+  <si>
+    <t>Agitated. Feels too many things. Need to plan strategy of long list of execution at office</t>
+  </si>
+  <si>
+    <t>Data Quest</t>
+  </si>
+  <si>
+    <t>Long festival day, but family time Sankranti</t>
+  </si>
+  <si>
+    <t>DataQuest, SeaBorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need to get into habit of logging daily </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +359,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF201F1E"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -304,7 +407,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -324,6 +427,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -717,13 +821,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D94366A-7E7E-4944-B7BE-9427E909CD86}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomRight" activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,7 +1195,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7">
-        <f t="shared" ref="B22:B36" si="1">B21+1</f>
+        <f t="shared" ref="B22:B63" si="1">B21+1</f>
         <v>43812</v>
       </c>
       <c r="C22" s="3">
@@ -1278,7 +1382,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1293,7 +1397,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1301,8 +1405,17 @@
         <f t="shared" si="1"/>
         <v>43824</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="6">
+        <v>8</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1310,8 +1423,14 @@
         <f t="shared" si="1"/>
         <v>43825</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="6">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -1319,8 +1438,333 @@
         <f t="shared" si="1"/>
         <v>43826</v>
       </c>
+      <c r="C36" s="6">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B37" s="7">
+        <f t="shared" si="1"/>
+        <v>43827</v>
+      </c>
+      <c r="C37" s="6">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="7">
+        <f t="shared" si="1"/>
+        <v>43828</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="7">
+        <f t="shared" si="1"/>
+        <v>43829</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="7">
+        <f t="shared" si="1"/>
+        <v>43830</v>
+      </c>
+      <c r="C40" s="6">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="7">
+        <f t="shared" si="1"/>
+        <v>43831</v>
+      </c>
+      <c r="C41" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="7">
+        <f t="shared" si="1"/>
+        <v>43832</v>
+      </c>
+      <c r="C42" s="6">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="7">
+        <f t="shared" si="1"/>
+        <v>43833</v>
+      </c>
+      <c r="C43" s="6">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="7">
+        <f t="shared" si="1"/>
+        <v>43834</v>
+      </c>
+      <c r="C44" s="6">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="7">
+        <f t="shared" si="1"/>
+        <v>43835</v>
+      </c>
+      <c r="C45" s="6">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="7">
+        <f t="shared" si="1"/>
+        <v>43836</v>
+      </c>
+      <c r="C46" s="6">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>83</v>
+      </c>
+      <c r="E46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="7">
+        <f t="shared" si="1"/>
+        <v>43837</v>
+      </c>
+      <c r="C47" s="6">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="7">
+        <f t="shared" si="1"/>
+        <v>43838</v>
+      </c>
+      <c r="C48">
+        <v>1.5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="7">
+        <f t="shared" si="1"/>
+        <v>43839</v>
+      </c>
+      <c r="C49">
+        <v>1.5</v>
+      </c>
+      <c r="D49" t="s">
+        <v>87</v>
+      </c>
+      <c r="E49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="7">
+        <f t="shared" si="1"/>
+        <v>43840</v>
+      </c>
+      <c r="C50" s="6">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="7">
+        <f t="shared" si="1"/>
+        <v>43841</v>
+      </c>
+      <c r="C51" s="6">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="7">
+        <f t="shared" si="1"/>
+        <v>43842</v>
+      </c>
+      <c r="C52" s="6">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="7">
+        <f t="shared" si="1"/>
+        <v>43843</v>
+      </c>
+      <c r="C53" s="6">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>87</v>
+      </c>
+      <c r="E53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="7">
+        <f t="shared" si="1"/>
+        <v>43844</v>
+      </c>
+      <c r="C54" s="6">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>87</v>
+      </c>
+      <c r="E54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="7">
+        <f t="shared" si="1"/>
+        <v>43845</v>
+      </c>
+      <c r="C55" s="6">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>93</v>
+      </c>
+      <c r="E55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="7">
+        <f t="shared" si="1"/>
+        <v>43846</v>
+      </c>
+      <c r="C56" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="D56" t="s">
+        <v>95</v>
+      </c>
+      <c r="E56" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="7">
+        <f t="shared" si="1"/>
+        <v>43847</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="7">
+        <f t="shared" si="1"/>
+        <v>43848</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="7">
+        <f t="shared" si="1"/>
+        <v>43849</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="7">
+        <f t="shared" si="1"/>
+        <v>43850</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="7">
+        <f t="shared" si="1"/>
+        <v>43851</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="7">
+        <f t="shared" si="1"/>
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="7">
+        <f t="shared" si="1"/>
+        <v>43853</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ML Journey Tracker.xlsx
+++ b/ML Journey Tracker.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\btjos\Documents\GitHub\hello-world\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C79887-C522-4217-A7C6-03828146BD84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA0C214-A9A9-4BD6-9C16-719D22B4D54A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{ADD9D4DE-E6D1-47DA-BE1E-8BBB98BB25EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="1" r:id="rId1"/>
-    <sheet name="Tracker" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Tracker" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="2" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="110">
   <si>
     <t>Day</t>
   </si>
@@ -333,6 +337,45 @@
   </si>
   <si>
     <t xml:space="preserve">Need to get into habit of logging daily </t>
+  </si>
+  <si>
+    <t>half hearted efforts!</t>
+  </si>
+  <si>
+    <t>pickd up again</t>
+  </si>
+  <si>
+    <t>More the practice, more the method in the madness. Completed a first guided project. This helps to keep the repository of my code snippets in some accessible shapw</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>Qtr4</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>Qtr1</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Sum of Hours</t>
   </si>
 </sst>
 </file>
@@ -407,7 +450,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -428,6 +471,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -444,6 +498,1465 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[ML Journey Tracker.xlsx]Sheet1!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="3"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Nov</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Dec</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Jan</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Qtr4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Qtr1</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2019</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2020</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE47-456F-842A-84DFF8B50709}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="486244912"/>
+        <c:axId val="486239664"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="486244912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="486239664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="486239664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="486244912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33A5BF3A-0FB2-4EDC-A90E-73DCE6E8ABA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Balachandra Joshi" refreshedDate="43848.986961111113" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="57" xr:uid="{B225553D-A2D9-4609-91DA-F46063CC16D1}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B1:C58" sheet="Tracker"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Day" numFmtId="15">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2019-11-23T00:00:00" maxDate="2020-01-19T00:00:00" count="57">
+        <d v="2019-11-23T00:00:00"/>
+        <d v="2019-11-24T00:00:00"/>
+        <d v="2019-11-25T00:00:00"/>
+        <d v="2019-11-26T00:00:00"/>
+        <d v="2019-11-27T00:00:00"/>
+        <d v="2019-11-28T00:00:00"/>
+        <d v="2019-11-29T00:00:00"/>
+        <d v="2019-11-30T00:00:00"/>
+        <d v="2019-12-01T00:00:00"/>
+        <d v="2019-12-02T00:00:00"/>
+        <d v="2019-12-03T00:00:00"/>
+        <d v="2019-12-04T00:00:00"/>
+        <d v="2019-12-05T00:00:00"/>
+        <d v="2019-12-06T00:00:00"/>
+        <d v="2019-12-07T00:00:00"/>
+        <d v="2019-12-08T00:00:00"/>
+        <d v="2019-12-09T00:00:00"/>
+        <d v="2019-12-10T00:00:00"/>
+        <d v="2019-12-11T00:00:00"/>
+        <d v="2019-12-12T00:00:00"/>
+        <d v="2019-12-13T00:00:00"/>
+        <d v="2019-12-14T00:00:00"/>
+        <d v="2019-12-15T00:00:00"/>
+        <d v="2019-12-16T00:00:00"/>
+        <d v="2019-12-17T00:00:00"/>
+        <d v="2019-12-18T00:00:00"/>
+        <d v="2019-12-19T00:00:00"/>
+        <d v="2019-12-20T00:00:00"/>
+        <d v="2019-12-21T00:00:00"/>
+        <d v="2019-12-22T00:00:00"/>
+        <d v="2019-12-23T00:00:00"/>
+        <d v="2019-12-24T00:00:00"/>
+        <d v="2019-12-25T00:00:00"/>
+        <d v="2019-12-26T00:00:00"/>
+        <d v="2019-12-27T00:00:00"/>
+        <d v="2019-12-28T00:00:00"/>
+        <d v="2019-12-29T00:00:00"/>
+        <d v="2019-12-30T00:00:00"/>
+        <d v="2019-12-31T00:00:00"/>
+        <d v="2020-01-01T00:00:00"/>
+        <d v="2020-01-02T00:00:00"/>
+        <d v="2020-01-03T00:00:00"/>
+        <d v="2020-01-04T00:00:00"/>
+        <d v="2020-01-05T00:00:00"/>
+        <d v="2020-01-06T00:00:00"/>
+        <d v="2020-01-07T00:00:00"/>
+        <d v="2020-01-08T00:00:00"/>
+        <d v="2020-01-09T00:00:00"/>
+        <d v="2020-01-10T00:00:00"/>
+        <d v="2020-01-11T00:00:00"/>
+        <d v="2020-01-12T00:00:00"/>
+        <d v="2020-01-13T00:00:00"/>
+        <d v="2020-01-14T00:00:00"/>
+        <d v="2020-01-15T00:00:00"/>
+        <d v="2020-01-16T00:00:00"/>
+        <d v="2020-01-17T00:00:00"/>
+        <d v="2020-01-18T00:00:00"/>
+      </sharedItems>
+      <fieldGroup par="3" base="0">
+        <rangePr groupBy="months" startDate="2019-11-23T00:00:00" endDate="2020-01-19T00:00:00"/>
+        <groupItems count="14">
+          <s v="&lt;11/23/2019"/>
+          <s v="Jan"/>
+          <s v="Feb"/>
+          <s v="Mar"/>
+          <s v="Apr"/>
+          <s v="May"/>
+          <s v="Jun"/>
+          <s v="Jul"/>
+          <s v="Aug"/>
+          <s v="Sep"/>
+          <s v="Oct"/>
+          <s v="Nov"/>
+          <s v="Dec"/>
+          <s v="&gt;1/19/2020"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="Hours" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="10"/>
+    </cacheField>
+    <cacheField name="Quarters" numFmtId="0" databaseField="0">
+      <fieldGroup base="0">
+        <rangePr groupBy="quarters" startDate="2019-11-23T00:00:00" endDate="2020-01-19T00:00:00"/>
+        <groupItems count="6">
+          <s v="&lt;11/23/2019"/>
+          <s v="Qtr1"/>
+          <s v="Qtr2"/>
+          <s v="Qtr3"/>
+          <s v="Qtr4"/>
+          <s v="&gt;1/19/2020"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="Years" numFmtId="0" databaseField="0">
+      <fieldGroup base="0">
+        <rangePr groupBy="years" startDate="2019-11-23T00:00:00" endDate="2020-01-19T00:00:00"/>
+        <groupItems count="4">
+          <s v="&lt;11/23/2019"/>
+          <s v="2019"/>
+          <s v="2020"/>
+          <s v="&gt;1/19/2020"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="57">
+  <r>
+    <x v="0"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1.5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1.5"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="0.5"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="1.5"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="0.5"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="0.5"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="6.5"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="0.5"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <n v="1.5"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <n v="1.5"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <n v="1.5"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <n v="1.5"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <n v="0.5"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <n v="5"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{05F0D1E3-E33F-4602-8BEE-1F7BEDD141D6}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" numFmtId="15" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item sd="0" x="0"/>
+        <item x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item x="4"/>
+        <item sd="0" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item sd="0" x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item sd="0" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="3"/>
+    <field x="2"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="11"/>
+    </i>
+    <i r="2">
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Hours" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -820,14 +2333,106 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463BE9EB-18FC-4DFF-8744-5F068599629F}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="14">
+        <v>102.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="14">
+        <v>102.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="14">
+        <v>74.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="14">
+        <v>145.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D94366A-7E7E-4944-B7BE-9427E909CD86}">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C57" sqref="C57"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1498,7 +3103,7 @@
       <c r="C40" s="6">
         <v>0</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="8" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1510,8 +3115,9 @@
       <c r="C41" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E41" s="8"/>
+    </row>
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B42" s="7">
         <f t="shared" si="1"/>
         <v>43832</v>
@@ -1522,7 +3128,7 @@
       <c r="D42" t="s">
         <v>76</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="8" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1537,7 +3143,7 @@
       <c r="D43" t="s">
         <v>77</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="8" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1552,8 +3158,9 @@
       <c r="D44" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E44" s="8"/>
+    </row>
+    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B45" s="7">
         <f t="shared" si="1"/>
         <v>43835</v>
@@ -1564,7 +3171,7 @@
       <c r="D45" t="s">
         <v>81</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="8" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1579,7 +3186,7 @@
       <c r="D46" t="s">
         <v>83</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="8" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1594,7 +3201,7 @@
       <c r="D47" t="s">
         <v>85</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="8" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1609,6 +3216,7 @@
       <c r="D48" t="s">
         <v>87</v>
       </c>
+      <c r="E48" s="8"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="7">
@@ -1621,7 +3229,7 @@
       <c r="D49" t="s">
         <v>87</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="8" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1636,6 +3244,7 @@
       <c r="D50" t="s">
         <v>89</v>
       </c>
+      <c r="E50" s="8"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="7">
@@ -1648,6 +3257,7 @@
       <c r="D51" t="s">
         <v>89</v>
       </c>
+      <c r="E51" s="8"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="7">
@@ -1660,8 +3270,9 @@
       <c r="D52" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E52" s="8"/>
+    </row>
+    <row r="53" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="7">
         <f t="shared" si="1"/>
         <v>43843</v>
@@ -1672,7 +3283,7 @@
       <c r="D53" t="s">
         <v>87</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1687,7 +3298,7 @@
       <c r="D54" t="s">
         <v>87</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="8" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1702,7 +3313,7 @@
       <c r="D55" t="s">
         <v>93</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="8" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1717,7 +3328,7 @@
       <c r="D56" t="s">
         <v>95</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="8" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1726,11 +3337,27 @@
         <f t="shared" si="1"/>
         <v>43847</v>
       </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C57" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D57" t="s">
+        <v>97</v>
+      </c>
+      <c r="E57" s="8"/>
+    </row>
+    <row r="58" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B58" s="7">
         <f t="shared" si="1"/>
         <v>43848</v>
+      </c>
+      <c r="C58" s="6">
+        <v>5</v>
+      </c>
+      <c r="D58" t="s">
+        <v>98</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">

--- a/ML Journey Tracker.xlsx
+++ b/ML Journey Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\btjos\Documents\GitHub\hello-world\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA0C214-A9A9-4BD6-9C16-719D22B4D54A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C00E4D-09E4-409F-B97E-A98FADFC11C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{ADD9D4DE-E6D1-47DA-BE1E-8BBB98BB25EC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{ADD9D4DE-E6D1-47DA-BE1E-8BBB98BB25EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="112">
   <si>
     <t>Day</t>
   </si>
@@ -212,9 +212,6 @@
     <t>Could have done better. Each day passing has its own opportunity cost. Sense of want is what drives any venture</t>
   </si>
   <si>
-    <t>Going through first four books from JB was quite easy, probably because I can relate faster to the underlying theory from my own profession. It is still feeling of not coding enough that gets in a way of reading through this like a zen. Might be worth to skip the theory for a month, focus on coding and then comeback to theory books.</t>
-  </si>
-  <si>
     <t>4.master_machine_learning_algorithms CH 1-12
 Ted-Master ML with Python - Ch 15 python codes
 Completing Andrew NG course today</t>
@@ -226,9 +223,6 @@
     <t>Andrew NG course - completed the last coding task</t>
   </si>
   <si>
-    <t xml:space="preserve">Taking bit of break from ML theory, focussing on working on Python coding. </t>
-  </si>
-  <si>
     <t>Petrou - Exercise Python Ch 5, 6 7 ,8 and 10</t>
   </si>
   <si>
@@ -261,18 +255,12 @@
     <t>groupby, agg, transform and working with datetime conditional column creation</t>
   </si>
   <si>
-    <t xml:space="preserve">invested in DataQuest. Need to prioritize and focus. Feels like the learning path still hasn't stabilized. Ted Petrou's courses were good initially to pick up Python coding. Jason's books initially appealed because of rigour of theory, which was required for a seasoned mind that demands knowledge of fundamentals behind workings. In the meantime there is PyBites and other practice-python sign-ups crop-up. And Humble Bundle throws up good number of impressive books. Need to set up a plan and follow riligiously. </t>
-  </si>
-  <si>
     <t>travelling</t>
   </si>
   <si>
     <t>fragile life</t>
   </si>
   <si>
-    <t>also maked wonder how much time to be really shared with community?</t>
-  </si>
-  <si>
     <t>Is self learning and realization more important than being social?</t>
   </si>
   <si>
@@ -294,15 +282,9 @@
     <t>Another good run</t>
   </si>
   <si>
-    <t>Focussed on DataQuest missions. Good thing about then is, feels like I am doing some coding. Also completed week 10 of Andrew NG's course</t>
-  </si>
-  <si>
     <t>office after a good gap</t>
   </si>
   <si>
-    <t>Feels so exhuasted at long day</t>
-  </si>
-  <si>
     <t xml:space="preserve">DataQuest </t>
   </si>
   <si>
@@ -321,9 +303,6 @@
     <t>fell sick - some DataQuest</t>
   </si>
   <si>
-    <t>Good learning from DataQuest. Will focus to complete the course, need to pick up Ted Petrou lessons again to solidyfy the learnings</t>
-  </si>
-  <si>
     <t>Agitated. Feels too many things. Need to plan strategy of long list of execution at office</t>
   </si>
   <si>
@@ -342,12 +321,6 @@
     <t>half hearted efforts!</t>
   </si>
   <si>
-    <t>pickd up again</t>
-  </si>
-  <si>
-    <t>More the practice, more the method in the madness. Completed a first guided project. This helps to keep the repository of my code snippets in some accessible shapw</t>
-  </si>
-  <si>
     <t>Row Labels</t>
   </si>
   <si>
@@ -376,6 +349,39 @@
   </si>
   <si>
     <t>Sum of Hours</t>
+  </si>
+  <si>
+    <t>Worked through DataQuest projects</t>
+  </si>
+  <si>
+    <t>Going through first four books from JB was quite easy, probably because I can relate faster to the underlying theory from my own profession. It is still feeling of not coding enough that gets in a way of reading through this like a Zen. Might be worth to skip the theory for a month, focus on coding and then comeback to theory books.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taking bit of break from ML theory, focusing on working on Python coding. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">invested in DataQuest. Need to prioritize and focus. Feels like the learning path still hasn't stabilized. Ted Petrou's courses were good initially to pick up Python coding. Jason's books initially appealed because of rigor of theory, which was required for a seasoned mind that demands knowledge of fundamentals behind workings. In the meantime there is PyBites and other practice-python sign-ups crop-up. And Humble Bundle throws up good number of impressive books. Need to set up a plan and follow religiously. </t>
+  </si>
+  <si>
+    <t>also makes wonder how much time to be really shared with community?</t>
+  </si>
+  <si>
+    <t>Focused on DataQuest missions. Good thing about then is, feels like I am doing some coding. Also completed week 10 of Andrew NG's course</t>
+  </si>
+  <si>
+    <t>Feels so exhausted at long day</t>
+  </si>
+  <si>
+    <t>Good learning from DataQuest. Will focus to complete the course, need to pick up Ted Petrou lessons again to solidify the learnings</t>
+  </si>
+  <si>
+    <t>picked up again</t>
+  </si>
+  <si>
+    <t>More the practice, more the method in the madness. Completed a first guided project. This helps to keep the repository of my code snippets in some accessible shape</t>
+  </si>
+  <si>
+    <t>Gets quite boring, feel like hitting that plateau.. Tough time starts now!!</t>
   </si>
 </sst>
 </file>
@@ -1855,7 +1861,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{05F0D1E3-E33F-4602-8BEE-1F7BEDD141D6}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{05F0D1E3-E33F-4602-8BEE-1F7BEDD141D6}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" numFmtId="15" showAll="0">
@@ -2336,7 +2342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463BE9EB-18FC-4DFF-8744-5F068599629F}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2348,15 +2354,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s">
         <v>100</v>
-      </c>
-      <c r="B1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B2" s="14">
         <v>102.5</v>
@@ -2364,7 +2370,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B3" s="14">
         <v>102.5</v>
@@ -2372,7 +2378,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B4" s="14">
         <v>28</v>
@@ -2380,7 +2386,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B5" s="14">
         <v>74.5</v>
@@ -2388,7 +2394,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B6" s="14">
         <v>43</v>
@@ -2396,7 +2402,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B7" s="14">
         <v>43</v>
@@ -2404,7 +2410,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B8" s="14">
         <v>43</v>
@@ -2412,7 +2418,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B9" s="14">
         <v>145.5</v>
@@ -2428,11 +2434,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D94366A-7E7E-4944-B7BE-9427E909CD86}">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B52" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:C58"/>
+      <selection pane="bottomRight" activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2913,10 +2919,10 @@
         <v>4</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2932,7 +2938,7 @@
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2947,7 +2953,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E30" s="6"/>
     </row>
@@ -2963,10 +2969,10 @@
         <v>6</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2981,10 +2987,10 @@
         <v>1.5</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2999,7 +3005,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3014,10 +3020,10 @@
         <v>8</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3032,7 +3038,7 @@
         <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -3047,10 +3053,10 @@
         <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -3062,10 +3068,10 @@
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3077,10 +3083,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -3092,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -3104,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3126,10 +3132,10 @@
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3141,10 +3147,10 @@
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3156,7 +3162,7 @@
         <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E44" s="8"/>
     </row>
@@ -3169,10 +3175,10 @@
         <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3184,10 +3190,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3199,10 +3205,10 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3214,7 +3220,7 @@
         <v>1.5</v>
       </c>
       <c r="D48" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E48" s="8"/>
     </row>
@@ -3227,10 +3233,10 @@
         <v>1.5</v>
       </c>
       <c r="D49" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
@@ -3242,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E50" s="8"/>
     </row>
@@ -3255,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E51" s="8"/>
     </row>
@@ -3268,7 +3274,7 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E52" s="8"/>
     </row>
@@ -3281,10 +3287,10 @@
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
@@ -3296,10 +3302,10 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
@@ -3311,10 +3317,10 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
@@ -3326,10 +3332,10 @@
         <v>1.5</v>
       </c>
       <c r="D56" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
@@ -3341,7 +3347,7 @@
         <v>0.5</v>
       </c>
       <c r="D57" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E57" s="8"/>
     </row>
@@ -3354,16 +3360,25 @@
         <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="7">
         <f t="shared" si="1"/>
         <v>43849</v>
+      </c>
+      <c r="C59" s="6">
+        <v>6</v>
+      </c>
+      <c r="D59" t="s">
+        <v>101</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
